--- a/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/Muka Depan.xlsx
+++ b/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/Muka Depan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\Digestion\Gerhardt\Gerhadt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90C2F1B-C07F-4694-AAC7-5B00D541978B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A490C-51EA-4957-BA51-70E92C408FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{95B9FBCE-B557-4AE4-AE15-05F05E04A3B1}"/>
   </bookViews>
@@ -225,9 +225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,6 +244,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,20 +569,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="F5">
-            <v>100</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="B8">
             <v>1</v>
-          </cell>
-          <cell r="C8">
-            <v>0.5</v>
-          </cell>
-          <cell r="F8">
-            <v>10</v>
           </cell>
         </row>
         <row r="9">
@@ -1017,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83CB736-D95E-486B-9F97-98AD496A4D6D}">
   <dimension ref="A2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G18" sqref="E18:H32"/>
     </sheetView>
   </sheetViews>
@@ -1050,8 +1039,8 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1059,8 +1048,8 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1136,345 +1125,311 @@
       <c r="H14" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>ROW(A1) &amp; ")"</f>
         <v>1)</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <f>[1]FormGerhadt!$B$8</f>
         <v>1</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11">
         <f>[1]FormGerhadt!$C$8</f>
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
         <f>[1]FormGerhadt!$F$8</f>
-        <v>10</v>
-      </c>
-      <c r="H18" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <f>[1]FormGerhadt!$B$9</f>
         <v>2</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11">
         <f>[1]FormGerhadt!$C$9</f>
         <v>0</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
         <f>[1]FormGerhadt!$F$9</f>
         <v>0</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <f>[1]FormGerhadt!$B$10</f>
         <v>3</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11">
         <f>[1]FormGerhadt!$C$10</f>
         <v>0</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
         <f>[1]FormGerhadt!$F$10</f>
         <v>0</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <f>[1]FormGerhadt!$B$11</f>
         <v>4</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11">
         <f>[1]FormGerhadt!$C$11</f>
         <v>0</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
         <f>[1]FormGerhadt!$F$11</f>
         <v>0</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <f>[1]FormGerhadt!$B$12</f>
         <v>5</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12">
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11">
         <f>[1]FormGerhadt!$C$12</f>
         <v>0</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11">
         <f>[1]FormGerhadt!$F$12</f>
         <v>0</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <f>[1]FormGerhadt!$B$13</f>
         <v>6</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11">
         <f>[1]FormGerhadt!$C$13</f>
         <v>0</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11">
         <f>[1]FormGerhadt!$F$13</f>
         <v>0</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <f>[1]FormGerhadt!$B$14</f>
         <v>7</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11">
         <f>[1]FormGerhadt!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11">
         <f>[1]FormGerhadt!$F$14</f>
         <v>0</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <f>[1]FormGerhadt!$B$15</f>
         <v>8</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11">
         <f>[1]FormGerhadt!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11">
         <f>[1]FormGerhadt!$F$15</f>
         <v>0</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <f>[1]FormGerhadt!$B$16</f>
         <v>9</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11">
         <f>[1]FormGerhadt!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11">
         <f>[1]FormGerhadt!$F$16</f>
         <v>0</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <f>[1]FormGerhadt!$B$17</f>
         <v>10</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11">
         <f>[1]FormGerhadt!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11">
         <f>[1]FormGerhadt!$F$17</f>
         <v>0</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <f>[1]FormGerhadt!$B$18</f>
         <v>11</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11">
         <f>[1]FormGerhadt!$C$18</f>
         <v>0</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11">
         <f>[1]FormGerhadt!$F$18</f>
         <v>0</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <f>[1]FormGerhadt!$B$19</f>
         <v>12</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11">
         <f>[1]FormGerhadt!$C$19</f>
         <v>0</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11">
         <f>[1]FormGerhadt!$F$19</f>
         <v>0</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <f>[1]FormGerhadt!$B$20</f>
         <v>13</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11">
         <f>[1]FormGerhadt!$C$20</f>
         <v>0</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11">
         <f>[1]FormGerhadt!$F$20</f>
         <v>0</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <f>[1]FormGerhadt!$B$21</f>
         <v>14</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12">
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11">
         <f>[1]FormGerhadt!$C$21</f>
         <v>0</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
         <f>[1]FormGerhadt!$F$21</f>
         <v>0</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <f>[1]FormGerhadt!$B$22</f>
         <v>15</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11">
         <f>[1]FormGerhadt!$C$22</f>
         <v>0</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11">
         <f>[1]FormGerhadt!$F$22</f>
         <v>0</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B29:D29"/>
@@ -1491,6 +1446,40 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:D18 B21:D21 B24:D24 B27:D27">
     <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">

--- a/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/Muka Depan.xlsx
+++ b/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/Muka Depan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\Digestion\Gerhardt\Gerhadt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A490C-51EA-4957-BA51-70E92C408FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82C2951-2F2B-463F-874B-D45BBF8EE42E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{95B9FBCE-B557-4AE4-AE15-05F05E04A3B1}"/>
   </bookViews>
@@ -253,27 +253,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0"/>
@@ -550,7 +530,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="FormGerhadt"/>
+      <sheetName val="Form"/>
       <sheetName val="SAMPEL 1 "/>
       <sheetName val="SAMPEL 2"/>
       <sheetName val="SAMPEL 3"/>
@@ -572,6 +552,9 @@
         <row r="8">
           <cell r="B8">
             <v>1</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
           </cell>
         </row>
         <row r="9">
@@ -1006,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83CB736-D95E-486B-9F97-98AD496A4D6D}">
   <dimension ref="A2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="E18:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,18 +1129,18 @@
         <v>1)</v>
       </c>
       <c r="B18" s="9">
-        <f>[1]FormGerhadt!$B$8</f>
+        <f>[1]Form!B8</f>
         <v>1</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11">
-        <f>[1]FormGerhadt!$C$8</f>
+        <f>[1]Form!C8</f>
         <v>0</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
-        <f>[1]FormGerhadt!$F$8</f>
+        <f>[1]Form!F8</f>
         <v>0</v>
       </c>
       <c r="H18" s="11"/>
@@ -1165,18 +1148,18 @@
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9">
-        <f>[1]FormGerhadt!$B$9</f>
+        <f>[1]Form!B9</f>
         <v>2</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11">
-        <f>[1]FormGerhadt!$C$9</f>
+        <f>[1]Form!C9</f>
         <v>0</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
-        <f>[1]FormGerhadt!$F$9</f>
+        <f>[1]Form!F9</f>
         <v>0</v>
       </c>
       <c r="H19" s="11"/>
@@ -1184,18 +1167,18 @@
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9">
-        <f>[1]FormGerhadt!$B$10</f>
+        <f>[1]Form!B10</f>
         <v>3</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11">
-        <f>[1]FormGerhadt!$C$10</f>
+        <f>[1]Form!C10</f>
         <v>0</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
-        <f>[1]FormGerhadt!$F$10</f>
+        <f>[1]Form!F10</f>
         <v>0</v>
       </c>
       <c r="H20" s="11"/>
@@ -1203,18 +1186,18 @@
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9">
-        <f>[1]FormGerhadt!$B$11</f>
+        <f>[1]Form!B11</f>
         <v>4</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11">
-        <f>[1]FormGerhadt!$C$11</f>
+        <f>[1]Form!C11</f>
         <v>0</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11">
-        <f>[1]FormGerhadt!$F$11</f>
+        <f>[1]Form!F11</f>
         <v>0</v>
       </c>
       <c r="H21" s="11"/>
@@ -1222,18 +1205,18 @@
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9">
-        <f>[1]FormGerhadt!$B$12</f>
+        <f>[1]Form!B12</f>
         <v>5</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11">
-        <f>[1]FormGerhadt!$C$12</f>
+        <f>[1]Form!C12</f>
         <v>0</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11">
-        <f>[1]FormGerhadt!$F$12</f>
+        <f>[1]Form!F12</f>
         <v>0</v>
       </c>
       <c r="H22" s="11"/>
@@ -1241,18 +1224,18 @@
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9">
-        <f>[1]FormGerhadt!$B$13</f>
+        <f>[1]Form!B13</f>
         <v>6</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11">
-        <f>[1]FormGerhadt!$C$13</f>
+        <f>[1]Form!C13</f>
         <v>0</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f>[1]FormGerhadt!$F$13</f>
+        <f>[1]Form!F13</f>
         <v>0</v>
       </c>
       <c r="H23" s="11"/>
@@ -1260,18 +1243,18 @@
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="9">
-        <f>[1]FormGerhadt!$B$14</f>
+        <f>[1]Form!B14</f>
         <v>7</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11">
-        <f>[1]FormGerhadt!$C$14</f>
+        <f>[1]Form!C14</f>
         <v>0</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
-        <f>[1]FormGerhadt!$F$14</f>
+        <f>[1]Form!F14</f>
         <v>0</v>
       </c>
       <c r="H24" s="11"/>
@@ -1279,18 +1262,18 @@
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9">
-        <f>[1]FormGerhadt!$B$15</f>
+        <f>[1]Form!B15</f>
         <v>8</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11">
-        <f>[1]FormGerhadt!$C$15</f>
+        <f>[1]Form!C15</f>
         <v>0</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11">
-        <f>[1]FormGerhadt!$F$15</f>
+        <f>[1]Form!F15</f>
         <v>0</v>
       </c>
       <c r="H25" s="11"/>
@@ -1298,18 +1281,18 @@
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9">
-        <f>[1]FormGerhadt!$B$16</f>
+        <f>[1]Form!B16</f>
         <v>9</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11">
-        <f>[1]FormGerhadt!$C$16</f>
+        <f>[1]Form!C16</f>
         <v>0</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11">
-        <f>[1]FormGerhadt!$F$16</f>
+        <f>[1]Form!F16</f>
         <v>0</v>
       </c>
       <c r="H26" s="11"/>
@@ -1317,18 +1300,18 @@
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9">
-        <f>[1]FormGerhadt!$B$17</f>
+        <f>[1]Form!B17</f>
         <v>10</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11">
-        <f>[1]FormGerhadt!$C$17</f>
+        <f>[1]Form!C17</f>
         <v>0</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11">
-        <f>[1]FormGerhadt!$F$17</f>
+        <f>[1]Form!F17</f>
         <v>0</v>
       </c>
       <c r="H27" s="11"/>
@@ -1336,18 +1319,18 @@
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9">
-        <f>[1]FormGerhadt!$B$18</f>
+        <f>[1]Form!B18</f>
         <v>11</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11">
-        <f>[1]FormGerhadt!$C$18</f>
+        <f>[1]Form!C18</f>
         <v>0</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11">
-        <f>[1]FormGerhadt!$F$18</f>
+        <f>[1]Form!F18</f>
         <v>0</v>
       </c>
       <c r="H28" s="11"/>
@@ -1355,18 +1338,18 @@
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9">
-        <f>[1]FormGerhadt!$B$19</f>
+        <f>[1]Form!B19</f>
         <v>12</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11">
-        <f>[1]FormGerhadt!$C$19</f>
+        <f>[1]Form!C19</f>
         <v>0</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11">
-        <f>[1]FormGerhadt!$F$19</f>
+        <f>[1]Form!F19</f>
         <v>0</v>
       </c>
       <c r="H29" s="11"/>
@@ -1374,18 +1357,18 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="9">
-        <f>[1]FormGerhadt!$B$20</f>
+        <f>[1]Form!B20</f>
         <v>13</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11">
-        <f>[1]FormGerhadt!$C$20</f>
+        <f>[1]Form!C20</f>
         <v>0</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11">
-        <f>[1]FormGerhadt!$F$20</f>
+        <f>[1]Form!F20</f>
         <v>0</v>
       </c>
       <c r="H30" s="11"/>
@@ -1393,18 +1376,18 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9">
-        <f>[1]FormGerhadt!$B$21</f>
+        <f>[1]Form!B21</f>
         <v>14</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11">
-        <f>[1]FormGerhadt!$C$21</f>
+        <f>[1]Form!C21</f>
         <v>0</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11">
-        <f>[1]FormGerhadt!$F$21</f>
+        <f>[1]Form!F21</f>
         <v>0</v>
       </c>
       <c r="H31" s="11"/>
@@ -1412,18 +1395,18 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9">
-        <f>[1]FormGerhadt!$B$22</f>
+        <f>[1]Form!B22</f>
         <v>15</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11">
-        <f>[1]FormGerhadt!$C$22</f>
+        <f>[1]Form!C22</f>
         <v>0</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11">
-        <f>[1]FormGerhadt!$F$22</f>
+        <f>[1]Form!F22</f>
         <v>0</v>
       </c>
       <c r="H32" s="11"/>
@@ -1481,38 +1464,18 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
   </mergeCells>
-  <conditionalFormatting sqref="B18:D18 B21:D21 B24:D24 B27:D27">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D20 B22:D23 B25:D26 B28:D29">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+  <conditionalFormatting sqref="B18:D32">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F32">
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H32">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D30">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:D31">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D32">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
